--- a/Rt_C_table.xlsx
+++ b/Rt_C_table.xlsx
@@ -425,7 +425,7 @@
         <v>1.25</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="5">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -509,7 +509,7 @@
         <v>0.9</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>1.433246479024404</v>
       </c>
       <c r="C11">
-        <v>0.5950000000000045</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
         <v>2.6</v>
@@ -621,7 +621,7 @@
         <v>0.904761904761905</v>
       </c>
       <c r="D18">
-        <v>1.857142857142858</v>
+        <v>1.80952380952381</v>
       </c>
     </row>
     <row r="19">
@@ -705,7 +705,7 @@
         <v>0.7500000000000018</v>
       </c>
       <c r="D24">
-        <v>1.812500000000004</v>
+        <v>1.750000000000004</v>
       </c>
     </row>
     <row r="25">
@@ -716,7 +716,7 @@
         <v>1.166684002494056</v>
       </c>
       <c r="C25">
-        <v>0.7826086956521765</v>
+        <v>0.7391304347826111</v>
       </c>
       <c r="D25">
         <v>1.608695652173918</v>
@@ -761,7 +761,7 @@
         <v>0.6521739130434847</v>
       </c>
       <c r="D28">
-        <v>1.434782608695666</v>
+        <v>1.478260869565232</v>
       </c>
     </row>
     <row r="29">
@@ -800,7 +800,7 @@
         <v>1.073956101348796</v>
       </c>
       <c r="C31">
-        <v>0.6111111111111292</v>
+        <v>0.6666666666666863</v>
       </c>
       <c r="D31">
         <v>1.555555555555601</v>
@@ -926,7 +926,7 @@
         <v>1.163168296221335</v>
       </c>
       <c r="C40">
-        <v>0.6363636363641041</v>
+        <v>0.5454545454549463</v>
       </c>
       <c r="D40">
         <v>1.818181818183154</v>
@@ -943,7 +943,7 @@
         <v>0.6000000000006276</v>
       </c>
       <c r="D41">
-        <v>1.900000000001987</v>
+        <v>2.000000000002092</v>
       </c>
     </row>
     <row r="42">
@@ -971,7 +971,7 @@
         <v>0.7000000000014786</v>
       </c>
       <c r="D43">
-        <v>2.000000000004225</v>
+        <v>2.100000000004436</v>
       </c>
     </row>
     <row r="44">
@@ -982,7 +982,7 @@
         <v>1.255240332205795</v>
       </c>
       <c r="C44">
-        <v>0.8888888888915529</v>
+        <v>0.8518518518544049</v>
       </c>
       <c r="D44">
         <v>1.666666666671662</v>
@@ -1041,7 +1041,7 @@
         <v>0.6363636363712893</v>
       </c>
       <c r="D48">
-        <v>2.000000000024052</v>
+        <v>1.909090909113868</v>
       </c>
     </row>
     <row r="49">
@@ -1083,7 +1083,7 @@
         <v>0.7272727272972549</v>
       </c>
       <c r="D51">
-        <v>1.590909090962745</v>
+        <v>1.545454545506667</v>
       </c>
     </row>
     <row r="52">
@@ -1097,7 +1097,7 @@
         <v>0.7419354839061788</v>
       </c>
       <c r="D52">
-        <v>1.419354838777038</v>
+        <v>1.451612903294698</v>
       </c>
     </row>
     <row r="53">
@@ -1125,7 +1125,7 @@
         <v>0.6818181818820498</v>
       </c>
       <c r="D54">
-        <v>1.50000000014051</v>
+        <v>1.545454545599313</v>
       </c>
     </row>
     <row r="55">
@@ -1192,7 +1192,7 @@
         <v>0.9331666590457446</v>
       </c>
       <c r="C59">
-        <v>0.5862068968465305</v>
+        <v>0.6206896554845618</v>
       </c>
       <c r="D59">
         <v>1.275862069607155</v>
@@ -1209,7 +1209,7 @@
         <v>0.5600000003928061</v>
       </c>
       <c r="D60">
-        <v>1.3200000009259</v>
+        <v>1.280000000897843</v>
       </c>
     </row>
     <row r="61">
@@ -1279,7 +1279,7 @@
         <v>0.5454545474391759</v>
       </c>
       <c r="D65">
-        <v>1.727272733557391</v>
+        <v>1.638636369598491</v>
       </c>
     </row>
     <row r="66">
@@ -1304,7 +1304,7 @@
         <v>1.07660328331078</v>
       </c>
       <c r="C67">
-        <v>0.6666666713136704</v>
+        <v>0.6111111153708646</v>
       </c>
       <c r="D67">
         <v>1.555555566398564</v>
@@ -1346,7 +1346,7 @@
         <v>1.097649394270739</v>
       </c>
       <c r="C70">
-        <v>0.7130952511543622</v>
+        <v>0.6666666788755296</v>
       </c>
       <c r="D70">
         <v>1.571428600206605</v>
@@ -1391,7 +1391,7 @@
         <v>0.6969697301239257</v>
       </c>
       <c r="D73">
-        <v>1.333333396758814</v>
+        <v>1.363636428503333</v>
       </c>
     </row>
     <row r="74">
@@ -1514,7 +1514,7 @@
         <v>0.9942890601433255</v>
       </c>
       <c r="C82">
-        <v>0.5294121754069201</v>
+        <v>0.5882357504521334</v>
       </c>
       <c r="D82">
         <v>1.470589376130334</v>
@@ -1542,7 +1542,7 @@
         <v>1.010068842728882</v>
       </c>
       <c r="C84">
-        <v>0.6086965168343451</v>
+        <v>0.6521748394653697</v>
       </c>
       <c r="D84">
         <v>1.434784646823813</v>
@@ -1584,7 +1584,7 @@
         <v>1.051254202438999</v>
       </c>
       <c r="C87">
-        <v>0.6818205550874845</v>
+        <v>0.6363658514149856</v>
       </c>
       <c r="D87">
         <v>1.500005221192466</v>
@@ -1671,7 +1671,7 @@
         <v>0.7931193413304107</v>
       </c>
       <c r="D93">
-        <v>1.517271783414699</v>
+        <v>1.55175523303776</v>
       </c>
     </row>
     <row r="94">
@@ -1741,7 +1741,7 @@
         <v>0.87507203186922</v>
       </c>
       <c r="D98">
-        <v>1.708473966982763</v>
+        <v>1.75014406373844</v>
       </c>
     </row>
     <row r="99">
@@ -1766,10 +1766,10 @@
         <v>1.260173574166497</v>
       </c>
       <c r="C100">
-        <v>0.9488536921432018</v>
+        <v>0.9232089977609532</v>
       </c>
       <c r="D100">
-        <v>1.589971051699419</v>
+        <v>1.615615746081668</v>
       </c>
     </row>
     <row r="101">
@@ -1794,7 +1794,7 @@
         <v>1.248840901281106</v>
       </c>
       <c r="C102">
-        <v>0.9526160399290194</v>
+        <v>0.928800638930794</v>
       </c>
       <c r="D102">
         <v>1.595631866881108</v>
@@ -1878,7 +1878,7 @@
         <v>1.321657569533794</v>
       </c>
       <c r="C108">
-        <v>0.9717618950219976</v>
+        <v>0.9710257117681937</v>
       </c>
       <c r="D108">
         <v>1.707945148826541</v>
@@ -1906,7 +1906,7 @@
         <v>1.28885127303381</v>
       </c>
       <c r="C110">
-        <v>1.019599423218168</v>
+        <v>1.002020122817855</v>
       </c>
       <c r="D110">
         <v>1.582137036028191</v>
@@ -1937,7 +1937,7 @@
         <v>0.9373363062449505</v>
       </c>
       <c r="D112">
-        <v>1.399403499464292</v>
+        <v>1.412605419270559</v>
       </c>
     </row>
     <row r="113">
@@ -1979,7 +1979,7 @@
         <v>0.826655032978344</v>
       </c>
       <c r="D115">
-        <v>1.292587869747956</v>
+        <v>1.307617961256653</v>
       </c>
     </row>
     <row r="116">
@@ -2021,7 +2021,7 @@
         <v>0.7608206401085432</v>
       </c>
       <c r="D118">
-        <v>1.201295747539805</v>
+        <v>1.187948017011585</v>
       </c>
     </row>
     <row r="119">
@@ -2063,7 +2063,7 @@
         <v>0.6926840539157945</v>
       </c>
       <c r="D121">
-        <v>1.227040324079407</v>
+        <v>1.207249351110385</v>
       </c>
     </row>
     <row r="122">
@@ -2074,10 +2074,10 @@
         <v>0.9385091107407992</v>
       </c>
       <c r="C122">
-        <v>0.7189936298939947</v>
+        <v>0.7022728478034366</v>
       </c>
       <c r="D122">
-        <v>1.170454746339061</v>
+        <v>1.187175528429619</v>
       </c>
     </row>
     <row r="123">
@@ -2102,10 +2102,10 @@
         <v>0.9508477750921769</v>
       </c>
       <c r="C124">
-        <v>0.7273462929625048</v>
+        <v>0.7108156953951751</v>
       </c>
       <c r="D124">
-        <v>1.206733622415065</v>
+        <v>1.190203024847735</v>
       </c>
     </row>
     <row r="125">
@@ -2161,7 +2161,7 @@
         <v>0.7262459542845225</v>
       </c>
       <c r="D128">
-        <v>1.234618122283688</v>
+        <v>1.216461973426575</v>
       </c>
     </row>
     <row r="129">
@@ -2256,7 +2256,7 @@
         <v>0.9240905429049896</v>
       </c>
       <c r="C135">
-        <v>0.6307287229719123</v>
+        <v>0.5975324743944432</v>
       </c>
       <c r="D135">
         <v>1.261457445943825</v>

--- a/Rt_C_table.xlsx
+++ b/Rt_C_table.xlsx
@@ -436,7 +436,7 @@
         <v>2.438814272643941</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -509,7 +509,7 @@
         <v>0.9</v>
       </c>
       <c r="D10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11">
@@ -621,7 +621,7 @@
         <v>0.904761904761905</v>
       </c>
       <c r="D18">
-        <v>1.80952380952381</v>
+        <v>1.810714285714269</v>
       </c>
     </row>
     <row r="19">
@@ -632,7 +632,7 @@
         <v>1.207667504201641</v>
       </c>
       <c r="C19">
-        <v>0.8461538461538465</v>
+        <v>0.8076923076923079</v>
       </c>
       <c r="D19">
         <v>1.615384615384616</v>
@@ -716,7 +716,7 @@
         <v>1.166684002494056</v>
       </c>
       <c r="C25">
-        <v>0.7391304347826111</v>
+        <v>0.7826086956521765</v>
       </c>
       <c r="D25">
         <v>1.608695652173918</v>
@@ -761,7 +761,7 @@
         <v>0.6521739130434847</v>
       </c>
       <c r="D28">
-        <v>1.478260869565232</v>
+        <v>1.434782608695666</v>
       </c>
     </row>
     <row r="29">
@@ -772,7 +772,7 @@
         <v>1.029765793132603</v>
       </c>
       <c r="C29">
-        <v>0.6500000000000092</v>
+        <v>0.6000000000000085</v>
       </c>
       <c r="D29">
         <v>1.450000000000021</v>
@@ -800,7 +800,7 @@
         <v>1.073956101348796</v>
       </c>
       <c r="C31">
-        <v>0.6666666666666863</v>
+        <v>0.6111111111111292</v>
       </c>
       <c r="D31">
         <v>1.555555555555601</v>
@@ -873,7 +873,7 @@
         <v>0.5714285714286728</v>
       </c>
       <c r="D36">
-        <v>1.21428571428593</v>
+        <v>1.250000000000222</v>
       </c>
     </row>
     <row r="37">
@@ -943,7 +943,7 @@
         <v>0.6000000000006276</v>
       </c>
       <c r="D41">
-        <v>2.000000000002092</v>
+        <v>1.900000000001987</v>
       </c>
     </row>
     <row r="42">
@@ -971,7 +971,7 @@
         <v>0.7000000000014786</v>
       </c>
       <c r="D43">
-        <v>2.100000000004436</v>
+        <v>2.000000000004225</v>
       </c>
     </row>
     <row r="44">
@@ -1069,7 +1069,7 @@
         <v>0.6250000000149631</v>
       </c>
       <c r="D50">
-        <v>1.6875000000404</v>
+        <v>1.625000000038904</v>
       </c>
     </row>
     <row r="51">
@@ -1083,7 +1083,7 @@
         <v>0.7272727272972549</v>
       </c>
       <c r="D51">
-        <v>1.545454545506667</v>
+        <v>1.590909090962745</v>
       </c>
     </row>
     <row r="52">
@@ -1097,7 +1097,7 @@
         <v>0.7419354839061788</v>
       </c>
       <c r="D52">
-        <v>1.451612903294698</v>
+        <v>1.419354838777038</v>
       </c>
     </row>
     <row r="53">
@@ -1125,7 +1125,7 @@
         <v>0.6818181818820498</v>
       </c>
       <c r="D54">
-        <v>1.545454545599313</v>
+        <v>1.50000000014051</v>
       </c>
     </row>
     <row r="55">
@@ -1178,7 +1178,7 @@
         <v>0.9540942819872594</v>
       </c>
       <c r="C58">
-        <v>0.6666666669067681</v>
+        <v>0.6923076925570285</v>
       </c>
       <c r="D58">
         <v>1.256410256862755</v>
@@ -1209,7 +1209,7 @@
         <v>0.5600000003928061</v>
       </c>
       <c r="D60">
-        <v>1.280000000897843</v>
+        <v>1.3200000009259</v>
       </c>
     </row>
     <row r="61">
@@ -1262,10 +1262,10 @@
         <v>0.9966857308367881</v>
       </c>
       <c r="C64">
-        <v>0.6363636380334483</v>
+        <v>0.6352272743941039</v>
       </c>
       <c r="D64">
-        <v>1.40909091278835</v>
+        <v>1.410227276427679</v>
       </c>
     </row>
     <row r="65">
@@ -1276,10 +1276,10 @@
         <v>1.053577780656011</v>
       </c>
       <c r="C65">
-        <v>0.5454545474391759</v>
+        <v>0.4545454561993133</v>
       </c>
       <c r="D65">
-        <v>1.638636369598491</v>
+        <v>1.636363642317528</v>
       </c>
     </row>
     <row r="66">
@@ -1304,7 +1304,7 @@
         <v>1.07660328331078</v>
       </c>
       <c r="C67">
-        <v>0.6111111153708646</v>
+        <v>0.6666666713136704</v>
       </c>
       <c r="D67">
         <v>1.555555566398564</v>
@@ -1503,7 +1503,7 @@
         <v>0.6086960003766202</v>
       </c>
       <c r="D81">
-        <v>1.391305143717989</v>
+        <v>1.347826857976802</v>
       </c>
     </row>
     <row r="82">
@@ -1584,10 +1584,10 @@
         <v>1.051254202438999</v>
       </c>
       <c r="C87">
-        <v>0.6363658514149856</v>
+        <v>0.6818205550874845</v>
       </c>
       <c r="D87">
-        <v>1.500005221192466</v>
+        <v>1.454550517519967</v>
       </c>
     </row>
     <row r="88">
@@ -1598,7 +1598,7 @@
         <v>1.047388916126316</v>
       </c>
       <c r="C88">
-        <v>0.7000032748983917</v>
+        <v>0.7333367641792675</v>
       </c>
       <c r="D88">
         <v>1.400006549796783</v>
@@ -1699,7 +1699,7 @@
         <v>0.7059073746605533</v>
       </c>
       <c r="D95">
-        <v>1.705942822096337</v>
+        <v>1.764768436651383</v>
       </c>
     </row>
     <row r="96">
@@ -1783,7 +1783,7 @@
         <v>0.9064204740401699</v>
       </c>
       <c r="D101">
-        <v>1.656561556004448</v>
+        <v>1.62530567758927</v>
       </c>
     </row>
     <row r="102">
@@ -1797,7 +1797,7 @@
         <v>0.928800638930794</v>
       </c>
       <c r="D102">
-        <v>1.595631866881108</v>
+        <v>1.571816465882882</v>
       </c>
     </row>
     <row r="103">
@@ -1825,7 +1825,7 @@
         <v>0.9170540448518745</v>
       </c>
       <c r="D104">
-        <v>1.834108089703749</v>
+        <v>1.792423814937755</v>
       </c>
     </row>
     <row r="105">
@@ -1864,7 +1864,7 @@
         <v>1.300758280352119</v>
       </c>
       <c r="C107">
-        <v>1.000932605220122</v>
+        <v>0.9781841369196643</v>
       </c>
       <c r="D107">
         <v>1.637889717632927</v>
@@ -1906,7 +1906,7 @@
         <v>1.28885127303381</v>
       </c>
       <c r="C110">
-        <v>1.002020122817855</v>
+        <v>1.019599423218168</v>
       </c>
       <c r="D110">
         <v>1.582137036028191</v>
@@ -1937,7 +1937,7 @@
         <v>0.9373363062449505</v>
       </c>
       <c r="D112">
-        <v>1.412605419270559</v>
+        <v>1.399403499464292</v>
       </c>
     </row>
     <row r="113">
@@ -2004,7 +2004,7 @@
         <v>1.026877821280466</v>
       </c>
       <c r="C117">
-        <v>0.7823803717437465</v>
+        <v>0.7632979236524357</v>
       </c>
       <c r="D117">
         <v>1.297606470209141</v>
@@ -2049,7 +2049,7 @@
         <v>0.7068629255235852</v>
       </c>
       <c r="D120">
-        <v>1.209107635764027</v>
+        <v>1.19097102122756</v>
       </c>
     </row>
     <row r="121">
@@ -2060,7 +2060,7 @@
         <v>0.9489741825289358</v>
       </c>
       <c r="C121">
-        <v>0.6926840539157945</v>
+        <v>0.7124750268848171</v>
       </c>
       <c r="D121">
         <v>1.207249351110385</v>
@@ -2077,7 +2077,7 @@
         <v>0.7022728478034366</v>
       </c>
       <c r="D122">
-        <v>1.187175528429619</v>
+        <v>1.170454746339061</v>
       </c>
     </row>
     <row r="123">
@@ -2102,7 +2102,7 @@
         <v>0.9508477750921769</v>
       </c>
       <c r="C124">
-        <v>0.7108156953951751</v>
+        <v>0.7273462929625048</v>
       </c>
       <c r="D124">
         <v>1.190203024847735</v>
@@ -2119,7 +2119,7 @@
         <v>0.66684033704954</v>
       </c>
       <c r="D125">
-        <v>1.304687615966492</v>
+        <v>1.305412442419796</v>
       </c>
     </row>
     <row r="126">
@@ -2158,10 +2158,10 @@
         <v>0.9683587767067675</v>
       </c>
       <c r="C128">
-        <v>0.7262459542845225</v>
+        <v>0.7444021031416357</v>
       </c>
       <c r="D128">
-        <v>1.216461973426575</v>
+        <v>1.234618122283688</v>
       </c>
     </row>
     <row r="129">
@@ -2217,7 +2217,7 @@
         <v>0.6847405954272261</v>
       </c>
       <c r="D132">
-        <v>1.441559148267844</v>
+        <v>1.405520169561148</v>
       </c>
     </row>
     <row r="133">
